--- a/ig/feature/add-sushi-as-dev-deps/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/feature/add-sushi-as-dev-deps/StructureDefinition-cds-ihe-careteam.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T14:33:55+00:00</t>
+    <t>2023-06-05T10:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
